--- a/passtime.xlsx
+++ b/passtime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_080D34B487C0D36EF3F92411595ED87656CD70A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEFCFB39-D2AA-44EE-B9DF-A4F9C256068E}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_080D34B487C0D36EF3F92411595ED87656CD70A2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BC9A2D5-1114-4471-BDB3-2482B4683269}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="570" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="3690" windowWidth="19740" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="63">
   <si>
     <t>imahashi</t>
   </si>
@@ -185,6 +185,51 @@
     <t>post</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>t-検定: 等分散を仮定した２標本による検定</t>
+  </si>
+  <si>
+    <t>変数 1</t>
+  </si>
+  <si>
+    <t>変数 2</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>観測数</t>
+  </si>
+  <si>
+    <t>プールされた分散</t>
+  </si>
+  <si>
+    <t>仮説平均との差異</t>
+  </si>
+  <si>
+    <t>自由度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t </t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 片側</t>
+  </si>
+  <si>
+    <t>t 境界値 片側</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 両側</t>
+  </si>
+  <si>
+    <t>t 境界値 両側</t>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -282,11 +327,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -299,6 +364,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8362,7 +8436,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -8545,7 +8618,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-                  <a:t>SE</a:t>
+                  <a:t>SSE</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
               </a:p>
@@ -10231,7 +10304,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-                  <a:t>SE</a:t>
+                  <a:t>SSE</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
               </a:p>
@@ -11917,7 +11990,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-                  <a:t>SE</a:t>
+                  <a:t>SSE</a:t>
                 </a:r>
                 <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
               </a:p>
@@ -13599,13 +13672,12 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-                  <a:t>事前</a:t>
+                  <a:t>事後</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
-                  <a:t>SE</a:t>
+                  <a:t>SSE</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -18367,15 +18439,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>580575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>256725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19760,6 +19832,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20047,10 +20123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HC102"/>
+  <dimension ref="A1:HC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="I93" workbookViewId="0">
+      <selection activeCell="V99" sqref="V99:X111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20976,8 +21052,14 @@
       <c r="O3">
         <v>29.586544036865231</v>
       </c>
+      <c r="EL3" t="s">
+        <v>48</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:211" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:211" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -21070,6 +21152,20 @@
       <c r="O5">
         <v>31.954808950424191</v>
       </c>
+      <c r="EL5" s="8"/>
+      <c r="EM5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="EN5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="EP5" s="8"/>
+      <c r="EQ5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="ER5" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -21117,6 +21213,24 @@
       <c r="O6">
         <v>39.52557110786438</v>
       </c>
+      <c r="EL6" t="s">
+        <v>51</v>
+      </c>
+      <c r="EM6">
+        <v>32.965162427084785</v>
+      </c>
+      <c r="EN6">
+        <v>88.127824652194974</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>51</v>
+      </c>
+      <c r="EQ6">
+        <v>32.163093784877233</v>
+      </c>
+      <c r="ER6">
+        <v>97.13941425595965</v>
+      </c>
     </row>
     <row r="7" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -21668,6 +21782,24 @@
         <f t="shared" si="15"/>
         <v>130.20343208312991</v>
       </c>
+      <c r="EL7" t="s">
+        <v>52</v>
+      </c>
+      <c r="EM7">
+        <v>56.5919488821568</v>
+      </c>
+      <c r="EN7">
+        <v>809.9721067575922</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>52</v>
+      </c>
+      <c r="EQ7">
+        <v>404.77933171933597</v>
+      </c>
+      <c r="ER7">
+        <v>4118.1818801506852</v>
+      </c>
     </row>
     <row r="8" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -21715,6 +21847,24 @@
       <c r="O8">
         <v>72.906455993652344</v>
       </c>
+      <c r="EL8" t="s">
+        <v>53</v>
+      </c>
+      <c r="EM8">
+        <v>70</v>
+      </c>
+      <c r="EN8">
+        <v>140</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>53</v>
+      </c>
+      <c r="EQ8">
+        <v>70</v>
+      </c>
+      <c r="ER8">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
@@ -21762,6 +21912,18 @@
       <c r="O9">
         <v>103.356251001358</v>
       </c>
+      <c r="EL9" t="s">
+        <v>54</v>
+      </c>
+      <c r="EM9">
+        <v>560.05272746237563</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>54</v>
+      </c>
+      <c r="EQ9">
+        <v>2886.331996296055</v>
+      </c>
     </row>
     <row r="10" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -21809,6 +21971,18 @@
       <c r="O10">
         <v>94.038716077804565</v>
       </c>
+      <c r="EL10" t="s">
+        <v>55</v>
+      </c>
+      <c r="EM10">
+        <v>0</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>55</v>
+      </c>
+      <c r="EQ10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -21856,6 +22030,18 @@
       <c r="O11">
         <v>86.057591915130615</v>
       </c>
+      <c r="EL11" t="s">
+        <v>56</v>
+      </c>
+      <c r="EM11">
+        <v>208</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>56</v>
+      </c>
+      <c r="EQ11">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -21903,6 +22089,18 @@
       <c r="O12">
         <v>77.825898885726929</v>
       </c>
+      <c r="EL12" t="s">
+        <v>57</v>
+      </c>
+      <c r="EM12">
+        <v>-15.923339319662881</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>57</v>
+      </c>
+      <c r="EQ12">
+        <v>-8.2620032742200511</v>
+      </c>
     </row>
     <row r="13" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -21950,6 +22148,18 @@
       <c r="O13">
         <v>90.23536491394043</v>
       </c>
+      <c r="EL13" t="s">
+        <v>58</v>
+      </c>
+      <c r="EM13">
+        <v>3.7095490269504077E-38</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>58</v>
+      </c>
+      <c r="EQ13">
+        <v>8.3222433137224322E-15</v>
+      </c>
     </row>
     <row r="14" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -21997,6 +22207,18 @@
       <c r="O14">
         <v>91.841580867767334</v>
       </c>
+      <c r="EL14" t="s">
+        <v>59</v>
+      </c>
+      <c r="EM14">
+        <v>1.6522123760661407</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>59</v>
+      </c>
+      <c r="EQ14">
+        <v>1.6522123760661407</v>
+      </c>
     </row>
     <row r="15" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -22044,8 +22266,20 @@
       <c r="O15">
         <v>120.9154388904572</v>
       </c>
+      <c r="EL15" t="s">
+        <v>60</v>
+      </c>
+      <c r="EM15">
+        <v>7.4190980539008154E-38</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>60</v>
+      </c>
+      <c r="EQ15">
+        <v>1.6644486627444864E-14</v>
+      </c>
     </row>
-    <row r="16" spans="1:211" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:211" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -22091,6 +22325,20 @@
       <c r="O16">
         <v>130.20343208312991</v>
       </c>
+      <c r="EL16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="EM16" s="7">
+        <v>1.9714346585202402</v>
+      </c>
+      <c r="EN16" s="7"/>
+      <c r="EP16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="EQ16" s="7">
+        <v>1.9714346585202402</v>
+      </c>
+      <c r="ER16" s="7"/>
     </row>
     <row r="17" spans="1:211" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
@@ -24099,6 +24347,16 @@
       <c r="T31">
         <f>CORREL(E17:HF17,E86:HF86)</f>
         <v>-0.55535415171528557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:211" x14ac:dyDescent="0.15">
+      <c r="Q32">
+        <f>_xlfn.VAR.P(B2:HC2)</f>
+        <v>1230.9231816875333</v>
+      </c>
+      <c r="R32">
+        <f>_xlfn.VAR.P(B17:HC17)</f>
+        <v>3797.0480583543667</v>
       </c>
     </row>
     <row r="33" spans="1:211" x14ac:dyDescent="0.15">
@@ -32108,7 +32366,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>40</v>
       </c>
@@ -32155,7 +32413,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>41</v>
       </c>
@@ -32202,7 +32460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>42</v>
       </c>
@@ -32248,8 +32506,14 @@
       <c r="O99" s="3">
         <v>40</v>
       </c>
+      <c r="R99" t="s">
+        <v>62</v>
+      </c>
+      <c r="V99" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>43</v>
       </c>
@@ -32296,7 +32560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A101" s="6" t="s">
         <v>45</v>
       </c>
@@ -32356,8 +32620,22 @@
         <f t="shared" si="98"/>
         <v>-0.87156334875617536</v>
       </c>
+      <c r="R101" s="11"/>
+      <c r="S101" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T101" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V101" s="11"/>
+      <c r="W101" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X101" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>46</v>
       </c>
@@ -32417,6 +32695,176 @@
         <f t="shared" si="99"/>
         <v>0.9173480683188231</v>
       </c>
+      <c r="R102" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S102" s="9">
+        <v>32.965162427084785</v>
+      </c>
+      <c r="T102" s="9">
+        <v>88.127824652194974</v>
+      </c>
+      <c r="V102" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W102" s="9">
+        <v>32.163093784877233</v>
+      </c>
+      <c r="X102" s="9">
+        <v>97.13941425595965</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R103" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S103" s="9">
+        <v>56.5919488821568</v>
+      </c>
+      <c r="T103" s="9">
+        <v>809.9721067575922</v>
+      </c>
+      <c r="V103" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="W103" s="9">
+        <v>404.77933171933597</v>
+      </c>
+      <c r="X103" s="9">
+        <v>4118.1818801506852</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R104" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="S104" s="9">
+        <v>70</v>
+      </c>
+      <c r="T104" s="9">
+        <v>140</v>
+      </c>
+      <c r="V104" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W104" s="9">
+        <v>70</v>
+      </c>
+      <c r="X104" s="9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R105" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S105" s="9">
+        <v>0</v>
+      </c>
+      <c r="T105" s="9"/>
+      <c r="V105" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W105" s="9">
+        <v>0</v>
+      </c>
+      <c r="X105" s="9"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R106" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="S106" s="9">
+        <v>174</v>
+      </c>
+      <c r="T106" s="9"/>
+      <c r="V106" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="W106" s="9">
+        <v>185</v>
+      </c>
+      <c r="X106" s="9"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R107" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S107" s="9">
+        <v>-21.481850313440599</v>
+      </c>
+      <c r="T107" s="9"/>
+      <c r="V107" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="W107" s="9">
+        <v>-10.952044894520057</v>
+      </c>
+      <c r="X107" s="9"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R108" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S108" s="9">
+        <v>4.04653308972323E-51</v>
+      </c>
+      <c r="T108" s="9"/>
+      <c r="V108" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W108" s="9">
+        <v>3.8764654631508218E-22</v>
+      </c>
+      <c r="X108" s="9"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R109" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="S109" s="9">
+        <v>1.6536580165162231</v>
+      </c>
+      <c r="T109" s="9"/>
+      <c r="V109" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W109" s="9">
+        <v>1.6531318686319261</v>
+      </c>
+      <c r="X109" s="9"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="R110" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S110" s="9">
+        <v>8.09306617944646E-51</v>
+      </c>
+      <c r="T110" s="9"/>
+      <c r="V110" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W110" s="9">
+        <v>7.7529309263016436E-22</v>
+      </c>
+      <c r="X110" s="9"/>
+    </row>
+    <row r="111" spans="1:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="R111" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S111" s="10">
+        <v>1.9736914397560745</v>
+      </c>
+      <c r="T111" s="10"/>
+      <c r="V111" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="W111" s="10">
+        <v>1.972869946210895</v>
+      </c>
+      <c r="X111" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
